--- a/va_facility_data_2025-02-20/Wausau VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Wausau%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Wausau VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Wausau%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R7ff0ffa34fff42d7855ed6643f09cb40"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rd76b2068b2a64fb8b7857902165c8b39"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R5f4d845a22e141128a4204b45e8c5e59"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Rcc1f35e710a947218e79a20eb2b72495"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R367ff2df4ec84c8bb25a73d512ec74db"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R59b4373ff78543cc800cefe910193a20"/>
   </x:sheets>
 </x:workbook>
 </file>
